--- a/data/RegistrationData.xlsx
+++ b/data/RegistrationData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12495" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="102">
   <si>
     <t>firstName</t>
   </si>
@@ -101,31 +101,31 @@
     <t>Delhi</t>
   </si>
   <si>
+    <t xml:space="preserve">Dibya Prasad </t>
+  </si>
+  <si>
+    <t>Gurgaon</t>
+  </si>
+  <si>
+    <t>Jaipur</t>
+  </si>
+  <si>
+    <t>Punjab</t>
+  </si>
+  <si>
+    <t>Udaipur</t>
+  </si>
+  <si>
+    <t>Abhinabh Parida</t>
+  </si>
+  <si>
+    <t>Abhinabh.Parida@gmail.com</t>
+  </si>
+  <si>
+    <t>9999888777</t>
+  </si>
+  <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dibya Prasad </t>
-  </si>
-  <si>
-    <t>Gurgaon</t>
-  </si>
-  <si>
-    <t>Jaipur</t>
-  </si>
-  <si>
-    <t>Punjab</t>
-  </si>
-  <si>
-    <t>Udaipur</t>
-  </si>
-  <si>
-    <t>Abhinabh Parida</t>
-  </si>
-  <si>
-    <t>Abhinabh.Parida@gmail.com</t>
-  </si>
-  <si>
-    <t>9999888777</t>
   </si>
   <si>
     <t>Abhishek Singh</t>
@@ -331,10 +331,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -371,7 +371,29 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -386,20 +408,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -408,6 +416,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -418,89 +493,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,6 +506,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="37">
     <fill>
@@ -547,90 +547,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -638,96 +728,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,15 +756,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -776,6 +767,24 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -795,24 +804,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -824,17 +815,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -853,155 +833,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1389,10 +1389,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="1" width="23.7142857142857"/>
-    <col min="3" max="3" customWidth="true" width="31.0"/>
-    <col min="4" max="4" customWidth="true" width="11.7142857142857"/>
-    <col min="5" max="5" customWidth="true" width="8.57142857142857"/>
+    <col min="1" max="2" width="23.7142857142857" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="11.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="8.57142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="12.75" spans="1:5">
@@ -1428,7 +1428,7 @@
       <c r="E2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="0"/>
+      <c r="G2"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="11" t="s">
@@ -1446,7 +1446,7 @@
       <c r="E3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="0"/>
+      <c r="G3"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="11" t="s">
@@ -1464,7 +1464,7 @@
       <c r="E4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="0"/>
+      <c r="G4"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:7">
       <c r="A5" s="11" t="s">
@@ -1482,7 +1482,7 @@
       <c r="E5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="0"/>
+      <c r="G5"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:7">
       <c r="A6" s="16" t="s">
@@ -1500,7 +1500,7 @@
       <c r="E6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="0"/>
+      <c r="G6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1520,16 +1520,16 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G6"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="1" width="23.7142857142857"/>
-    <col min="3" max="3" customWidth="true" width="31.0"/>
-    <col min="4" max="4" customWidth="true" width="11.7142857142857"/>
-    <col min="5" max="5" customWidth="true" width="8.57142857142857"/>
+    <col min="1" max="2" width="23.7142857142857" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="11.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="8.57142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="1" ht="12" customHeight="1" spans="1:5">
@@ -1565,16 +1565,14 @@
       <c r="E2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s" s="0">
-        <v>27</v>
-      </c>
+      <c r="G2"/>
     </row>
     <row r="3" s="1" customFormat="1" spans="1:7">
       <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>12</v>
@@ -1583,11 +1581,9 @@
         <v>13</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>27</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G3"/>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:7">
       <c r="A4" s="11" t="s">
@@ -1603,11 +1599,9 @@
         <v>17</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s" s="0">
-        <v>27</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G4"/>
     </row>
     <row r="5" s="1" customFormat="1" spans="1:7">
       <c r="A5" s="11" t="s">
@@ -1623,11 +1617,9 @@
         <v>21</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>27</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G5"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:7">
       <c r="A6" s="16" t="s">
@@ -1643,11 +1635,9 @@
         <v>25</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s" s="0">
-        <v>27</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="G6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1683,17 +1673,17 @@
   <sheetPr/>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="G1" sqref="G$1:G$1048576"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="23.7142857142857"/>
-    <col min="2" max="2" customWidth="true" style="1" width="15.1142857142857"/>
-    <col min="3" max="3" customWidth="true" style="1" width="33.1428571428571"/>
-    <col min="4" max="4" customWidth="true" style="1" width="18.4857142857143"/>
-    <col min="5" max="16384" style="1" width="9.14285714285714"/>
+    <col min="1" max="1" width="23.7142857142857" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.1142857142857" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.1428571428571" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.4857142857143" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
@@ -1715,25 +1705,25 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="15" spans="1:7">
       <c r="A2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="18" t="s">
         <v>34</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>35</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G2" t="s" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="G2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="15" spans="1:7">
       <c r="A3" s="6" t="s">
         <v>36</v>
       </c>
@@ -1747,13 +1737,13 @@
         <v>38</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" t="s" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="15" spans="1:5">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="15" spans="1:7">
       <c r="A4" s="6" t="s">
         <v>39</v>
       </c>
@@ -1767,13 +1757,13 @@
         <v>41</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="15" spans="1:5">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="15" spans="1:7">
       <c r="A5" s="6" t="s">
         <v>42</v>
       </c>
@@ -1787,13 +1777,13 @@
         <v>44</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" t="s" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="15" spans="1:5">
+        <v>30</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="15" spans="1:7">
       <c r="A6" s="6" t="s">
         <v>45</v>
       </c>
@@ -1807,13 +1797,13 @@
         <v>47</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="15" spans="1:5">
+        <v>31</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="15" spans="1:7">
       <c r="A7" s="6" t="s">
         <v>48</v>
       </c>
@@ -1829,11 +1819,11 @@
       <c r="E7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G7" t="s" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="G7" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="15" spans="1:7">
       <c r="A8" s="6" t="s">
         <v>51</v>
       </c>
@@ -1849,11 +1839,11 @@
       <c r="E8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G8" t="s" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="G8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="15" spans="1:7">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1869,11 +1859,11 @@
       <c r="E9" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G9" t="s" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="G9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="15" spans="1:7">
       <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
@@ -1889,11 +1879,11 @@
       <c r="E10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G10" t="s" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="G10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="15" spans="1:7">
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
@@ -1909,11 +1899,11 @@
       <c r="E11" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G11" t="s" s="1">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="G11" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="15" spans="1:7">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
@@ -1929,8 +1919,8 @@
       <c r="E12" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G12" t="s" s="1">
-        <v>27</v>
+      <c r="G12" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="15" spans="1:5">
@@ -1949,9 +1939,6 @@
       <c r="E13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G13" t="s" s="1">
-        <v>27</v>
-      </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="15" spans="1:5">
       <c r="A14" s="6" t="s">
@@ -1969,9 +1956,6 @@
       <c r="E14" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G14" t="s" s="1">
-        <v>27</v>
-      </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="15" spans="1:5">
       <c r="A15" s="6" t="s">
@@ -1989,9 +1973,6 @@
       <c r="E15" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G15" t="s" s="1">
-        <v>27</v>
-      </c>
     </row>
     <row r="16" s="1" customFormat="1" ht="15" spans="1:5">
       <c r="A16" s="6" t="s">
@@ -2009,9 +1990,6 @@
       <c r="E16" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G16" t="s" s="1">
-        <v>27</v>
-      </c>
     </row>
     <row r="17" s="1" customFormat="1" ht="15" spans="1:5">
       <c r="A17" s="6" t="s">
@@ -2029,9 +2007,6 @@
       <c r="E17" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="G17" t="s" s="1">
-        <v>27</v>
-      </c>
     </row>
     <row r="18" s="1" customFormat="1" ht="15" spans="1:5">
       <c r="A18" s="6" t="s">
@@ -2183,7 +2158,7 @@
         <v>92</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" s="1" customFormat="1" ht="15" spans="1:5">
@@ -2200,7 +2175,7 @@
         <v>95</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="15" spans="1:5">
@@ -2217,7 +2192,7 @@
         <v>98</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="1" ht="15" spans="1:5">
@@ -2234,7 +2209,7 @@
         <v>101</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
